--- a/sample_data/annotation/8141_annotation_full.xlsx
+++ b/sample_data/annotation/8141_annotation_full.xlsx
@@ -104,7 +104,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -121,6 +121,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE0C2CD"/>
         <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -224,6 +229,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -1193,6 +1199,41 @@
           <t>Entlang der Fluchtlinien sind Gehsteige mit jeweils mindestens 2,0 m Breite herzustellen.</t>
         </is>
       </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>AnFluchtlinie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="H11" s="22" t="inlineStr">
+        <is>
+          <t>Strassen_und_Gehsteige</t>
+        </is>
+      </c>
+      <c r="I11" s="22" t="inlineStr">
+        <is>
+          <t>GehsteigbreiteMin</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2,0 m</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="75" customHeight="1" s="20">
       <c r="A12" t="inlineStr">
@@ -1205,6 +1246,26 @@
           <t>Bestimmungen ohne Bezeichnung des Geltungsbereichs mit dem Planzeichen BB:</t>
         </is>
       </c>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="E12" s="22" t="inlineStr">
+        <is>
+          <t>Planzeichen</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="75" customHeight="1" s="20">
       <c r="A13" t="inlineStr">
@@ -1217,6 +1278,36 @@
           <t>Der höchste Punkt der zur Errichtung gelangenden Dächer darf die ausgeführte Gebäudehöhe um höchstens 4,5 m überragen.</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AbschlussDachMaxBezugGebaeude</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4,5 m</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hoehe</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>GebaeudeHoeheArt</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ausgeführt</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="75" customHeight="1" s="20">
       <c r="A14" t="inlineStr">
@@ -1229,6 +1320,86 @@
           <t>Die zur Errichtung gelangenden Dächer von Gebäuden mit einer bebauten Fläche von mehr als 12 m² sind bis zu einer Dachneigung von 15° entsprechend dem Stand der Technik zu begrünen.</t>
         </is>
       </c>
+      <c r="D14" s="22" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="E14" s="22" t="inlineStr">
+        <is>
+          <t>BegruenungDach</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="H14" s="22" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="I14" s="22" t="inlineStr">
+        <is>
+          <t>DachneigungMax</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>15°</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="L14" s="22" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="M14" s="22" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>bebauten Fläche</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="P14" s="22" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="Q14" s="22" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>von mehr als 12 m²</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="75" customHeight="1" s="20">
       <c r="A15" t="inlineStr">
@@ -1241,6 +1412,56 @@
           <t>Mit Ausnahme der als Gemischtes Baugebiet/Betriebsbaugebiet gewidmeten Flächen darf die mit Nebengebäuden bebaute Grundfläche höchstens 30 m² je Bauplatz betragen.</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>höchstens 30 m²</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ausgestaltung_und_Sonstiges</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>GebaeudeBautyp</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Nebengebäude</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Nutzung_Widmung</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>WidmungUndZweckbestimmung</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Gemischtes Baugebiet/Betriebsbaugebiet</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="75" customHeight="1" s="20">
       <c r="A16" t="inlineStr">
@@ -1253,6 +1474,101 @@
           <t>Die Dächer von Nebengebäuden mit einer bebauten Fläche von mehr als 12 m² sind als Flachdächer auszuführen und entsprechend dem Stand der Technik zu begrünen.</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BegruenungDach</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Dachart</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Flach</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>bebauten Fläche</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>von mehr als 12 m²</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Ausgestaltung_und_Sonstiges</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>GebaeudeBautyp</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Nebengebäude</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="75" customHeight="1" s="20">
       <c r="A17" t="inlineStr">
@@ -1265,6 +1581,61 @@
           <t>Mit Ausnahme der als Gemischtes Baugebiet/Betriebsbaugebiet gewidmeten Flächen sind bebaubare jedoch unbebaut bleibende Grundflächen gärtnerisch auszugestalten.</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ausgestaltung_und_Sonstiges</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AusnahmeGaertnerischAuszugestaltende</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> unbebaut bleibende Grundflächen</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Ausgestaltung_und_Sonstiges</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>AnordnungGaertnerischeAusgestaltung</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Nutzung_Widmung</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>WidmungUndZweckbestimmung</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Gemischtes Baugebiet/Betriebsbaugebiet</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="75" customHeight="1" s="20">
       <c r="A18" t="inlineStr">
@@ -1277,6 +1648,31 @@
           <t>Auf den als Gemischtes Baugebiet/Geschäftsviertel gewidmeten Grundflächen ist die Errichtung von Wohnungen untersagt.</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nutzung_Widmung</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VerbotWohnung</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nutzung_Widmung</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>WidmungUndZweckbestimmung</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Gemischtes Baugebiet/Geschäftsviertel</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="75" customHeight="1" s="20">
       <c r="A19" t="inlineStr">
@@ -1289,6 +1685,16 @@
           <t>Die Einleitungsmenge von Niederschlagswässern in den Kanal darf im Neubaufall 0,012 l/s pro m² der Fläche des jeweiligen Bauplatzes, Bauloses bzw. Trennstückes nicht überschreiten.</t>
         </is>
       </c>
+      <c r="D19" s="22" t="inlineStr">
+        <is>
+          <t>Ausgestaltung_und_Sonstiges</t>
+        </is>
+      </c>
+      <c r="E19" s="22" t="inlineStr">
+        <is>
+          <t>EinleitungNiederschlagswaesser</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="75" customHeight="1" s="20">
       <c r="A20" t="inlineStr">
@@ -1301,6 +1707,26 @@
           <t>Bestimmungen mit Bezeichnung des Geltungsbereichs mit dem Planzeichen BB:</t>
         </is>
       </c>
+      <c r="D20" s="22" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="E20" s="22" t="inlineStr">
+        <is>
+          <t>Planzeichen</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="75" customHeight="1" s="20">
       <c r="A21" t="inlineStr">
@@ -1313,6 +1739,36 @@
           <t>Auf den mit BB1 bezeichneten Flächen ist die Unterbrechung der geschlossenen Bauweise zulässig.</t>
         </is>
       </c>
+      <c r="D21" s="22" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="E21" s="22" t="inlineStr">
+        <is>
+          <t>Planzeichen</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BB1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="H21" s="22" t="inlineStr">
+        <is>
+          <t>Ausgestaltung_und_Sonstiges</t>
+        </is>
+      </c>
+      <c r="I21" s="22" t="inlineStr">
+        <is>
+          <t>UnterbrechungGeschlosseneBauweise</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="75" customHeight="1" s="20">
       <c r="A22" t="inlineStr">
@@ -1323,6 +1779,106 @@
       <c r="B22" s="21" t="inlineStr">
         <is>
           <t>Für die mit BB2 bezeichneten Grundflächen wird bestimmt: Die zur Errichtung gelangenden Dächer von Gebäuden mit einer bebauten Fläche von mehr als 12 m² sind als Flachdächer auszuführen und entsprechend dem Stand der Technik zu begrünen.</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="E22" s="22" t="inlineStr">
+        <is>
+          <t>BegruenungDach</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="H22" s="22" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="I22" s="22" t="inlineStr">
+        <is>
+          <t>Dachart</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Flach</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="L22" s="22" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="M22" s="22" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>bebauten Fläche</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="P22" s="22" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="Q22" s="22" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>von mehr als 12 m²</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="T22" s="22" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="U22" s="22" t="inlineStr">
+        <is>
+          <t>Planzeichen</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>BB2</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>condition</t>
         </is>
       </c>
     </row>
@@ -2475,110 +3031,110 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="20">
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="23" t="inlineStr">
         <is>
           <t>Ausgestaltung_und_Sonstiges</t>
         </is>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="20">
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="23" t="inlineStr">
         <is>
           <t>Dach</t>
         </is>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="20">
-      <c r="B3" s="22" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Einfriedungen</t>
         </is>
       </c>
-      <c r="F3" s="22" t="inlineStr">
+      <c r="F3" s="23" t="inlineStr">
         <is>
           <t>Volumen</t>
         </is>
       </c>
-      <c r="G3" s="22" t="inlineStr">
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Flaeche</t>
         </is>
       </c>
-      <c r="H3" s="22" t="inlineStr">
+      <c r="H3" s="23" t="inlineStr">
         <is>
           <t>Hoehe</t>
         </is>
       </c>
-      <c r="I3" s="22" t="inlineStr">
+      <c r="I3" s="23" t="inlineStr">
         <is>
           <t>Stellplaetze_Garagen_Parkgebäude</t>
         </is>
       </c>
-      <c r="J3" s="22" t="inlineStr">
+      <c r="J3" s="23" t="inlineStr">
         <is>
           <t>Geschosse</t>
         </is>
       </c>
-      <c r="K3" s="22" t="inlineStr">
+      <c r="K3" s="23" t="inlineStr">
         <is>
           <t>Vorbauten</t>
         </is>
       </c>
-      <c r="L3" s="22" t="inlineStr">
+      <c r="L3" s="23" t="inlineStr">
         <is>
           <t>Einfriedungen</t>
         </is>
       </c>
-      <c r="M3" s="22" t="inlineStr">
+      <c r="M3" s="23" t="inlineStr">
         <is>
           <t>Nutzung_Widmung</t>
         </is>
       </c>
-      <c r="N3" s="22" t="inlineStr">
+      <c r="N3" s="23" t="inlineStr">
         <is>
           <t>Grossbauvorhaben_Hochhaeuser_Einkaufszentren_Geschaeftsgebaeude</t>
         </is>
       </c>
-      <c r="O3" s="22" t="inlineStr">
+      <c r="O3" s="23" t="inlineStr">
         <is>
           <t>Laubengaenge_Durchfahrten_Arkaden</t>
         </is>
       </c>
-      <c r="P3" s="22" t="inlineStr">
+      <c r="P3" s="23" t="inlineStr">
         <is>
           <t>Ausgestaltung_und_Sonstiges</t>
         </is>
       </c>
-      <c r="Q3" s="22" t="inlineStr">
+      <c r="Q3" s="23" t="inlineStr">
         <is>
           <t>Dach</t>
         </is>
       </c>
-      <c r="R3" s="22" t="inlineStr">
+      <c r="R3" s="23" t="inlineStr">
         <is>
           <t>Strassen_und_Gehsteige</t>
         </is>
       </c>
-      <c r="S3" s="22" t="inlineStr">
+      <c r="S3" s="23" t="inlineStr">
         <is>
           <t>Lage_Gelaende_Planzeichen</t>
         </is>
       </c>
-      <c r="T3" s="22" t="n"/>
-      <c r="U3" s="22" t="inlineStr">
+      <c r="T3" s="23" t="n"/>
+      <c r="U3" s="23" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="X3" s="23" t="inlineStr">
+      <c r="X3" s="24" t="inlineStr">
         <is>
           <t>Modality</t>
         </is>
       </c>
-      <c r="Z3" s="23" t="n"/>
+      <c r="Z3" s="24" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="20">
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="23" t="inlineStr">
         <is>
           <t>Flaeche</t>
         </is>
@@ -2665,7 +3221,7 @@
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="20">
-      <c r="B5" s="22" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Geschosse</t>
         </is>
@@ -2735,14 +3291,14 @@
           <t>condition</t>
         </is>
       </c>
-      <c r="X5" s="24" t="inlineStr">
+      <c r="X5" s="25" t="inlineStr">
         <is>
           <t>permission</t>
         </is>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="20">
-      <c r="B6" s="22" t="inlineStr">
+      <c r="B6" s="23" t="inlineStr">
         <is>
           <t>Grossbauvorhaben_Hochhaeuser_Einkaufszentren_Geschaeftsgebaeude</t>
         </is>
@@ -2819,7 +3375,7 @@
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="20">
-      <c r="B7" s="22" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Hoehe</t>
         </is>
@@ -2881,7 +3437,7 @@
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="20">
-      <c r="B8" s="22" t="inlineStr">
+      <c r="B8" s="23" t="inlineStr">
         <is>
           <t>Lage_Gelaende_Planzeichen</t>
         </is>
@@ -2938,7 +3494,7 @@
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="20">
-      <c r="B9" s="22" t="inlineStr">
+      <c r="B9" s="23" t="inlineStr">
         <is>
           <t>Laubengaenge_Durchfahrten_Arkaden</t>
         </is>
@@ -2985,7 +3541,7 @@
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="20">
-      <c r="B10" s="22" t="inlineStr">
+      <c r="B10" s="23" t="inlineStr">
         <is>
           <t>Nutzung_Widmung</t>
         </is>
@@ -3027,7 +3583,7 @@
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="20">
-      <c r="B11" s="22" t="inlineStr">
+      <c r="B11" s="23" t="inlineStr">
         <is>
           <t>Stellplaetze_Garagen_Parkgebäude</t>
         </is>
@@ -3064,7 +3620,7 @@
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="20">
-      <c r="B12" s="22" t="inlineStr">
+      <c r="B12" s="23" t="inlineStr">
         <is>
           <t>Strassen_und_Gehsteige</t>
         </is>
@@ -3086,7 +3642,7 @@
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="20">
-      <c r="B13" s="22" t="inlineStr">
+      <c r="B13" s="23" t="inlineStr">
         <is>
           <t>Volumen</t>
         </is>
@@ -3108,7 +3664,7 @@
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="20">
-      <c r="B14" s="22" t="inlineStr">
+      <c r="B14" s="23" t="inlineStr">
         <is>
           <t>Vorbauten</t>
         </is>
@@ -3125,7 +3681,7 @@
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="20">
-      <c r="B15" s="22" t="inlineStr">
+      <c r="B15" s="23" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
@@ -3142,7 +3698,7 @@
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="20">
-      <c r="B16" s="22" t="n"/>
+      <c r="B16" s="23" t="n"/>
       <c r="P16" s="19" t="inlineStr">
         <is>
           <t>Kleinhaeuser</t>
